--- a/tes.xlsx
+++ b/tes.xlsx
@@ -532,17 +532,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1361089</t>
+          <t>https://www.karir.com/opportunities/1385305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gaji Kompetitif</t>
+          <t>IDR 7.000.000 - 9.000.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HRBP</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -552,17 +552,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pengalaman 0 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PT Neural Technologies Indonesia, head office - Jakarta Selatan</t>
+          <t>PT Digital Mediatama Maxima TBK, head office - Jakarta Pusat</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1358741</t>
+          <t>https://www.karir.com/opportunities/1358924</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IDR 5.000.000 - 8.000.000</t>
+          <t>IDR 5.000.000 - 7.500.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>SEO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -622,17 +622,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1361000</t>
+          <t>https://www.karir.com/opportunities/1358743</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gaji Kompetitif</t>
+          <t>IDR 5.000.000 - 8.000.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FullStack Developer</t>
+          <t>Wordpress Developer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PT Neural Technologies Indonesia, Operational Office (Tebet) - Prov. DKI-Jakarta</t>
+          <t>PT Rakhasa Artha Wisesa, head office - Prov. DKI-Jakarta</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -667,17 +667,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360998</t>
+          <t>https://www.karir.com/opportunities/1358616</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gaji Kompetitif</t>
+          <t>IDR 5.000.000 - 8.000.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Database Engineer</t>
+          <t>Mobile Developer Swift</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PT Neural Technologies Indonesia, Operational Office (Tebet) - Prov. DKI-Jakarta</t>
+          <t>PT Rakhasa Artha Wisesa, head office - Prov. DKI-Jakarta</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -712,17 +712,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360986</t>
+          <t>https://www.karir.com/opportunities/1358615</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gaji Kompetitif</t>
+          <t>IDR 5.000.000 - 8.000.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Mobile Developer Kotlin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -732,17 +732,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pengalaman 0 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>PT Neural Technologies Indonesia, Operational Office (Tebet) - Prov. DKI-Jakarta</t>
+          <t>PT Rakhasa Artha Wisesa, head office - Prov. DKI-Jakarta</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -757,17 +757,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360942</t>
+          <t>https://www.karir.com/opportunities/1385253</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IDR 2.000.000 - 3.000.000</t>
+          <t>IDR 8.000.000 - 15.000.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Collection - Data Entry &amp; Collection Support Coordinator</t>
+          <t>Business Development</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -777,17 +777,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pengalaman 0 tahun</t>
+          <t>Pengalaman 2 tahun</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PERSOLKELLY Recruitment Indonesia, Medan - Medan</t>
+          <t>PT Digital Mediatama Maxima TBK, head office - Jakarta Pusat</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360914</t>
+          <t>https://www.karir.com/opportunities/1385229</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IDR 5.000.000 - 6.500.000</t>
+          <t>Gaji Kompetitif</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Teknisi Videotron</t>
+          <t>HSE Staff</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -822,17 +822,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PT Digital Mediatama Maxima TBK, head office - Jakarta Pusat</t>
+          <t>PT Neural Technologies Indonesia, Operational Office (Tebet) - Prov. DKI-Jakarta</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360875</t>
+          <t>https://www.karir.com/opportunities/1384248</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IT Sales - PT. Samafitro Surabaya</t>
+          <t>Teknisi Komputer dan Printer Balikpapan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ASABA GROUP, Cabang Surabaya - Surabaya</t>
+          <t>PT IT Service Centre, Balikpapan - Balikpapan</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1360829</t>
+          <t>https://www.karir.com/opportunities/1384272</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Digital Marketing</t>
+          <t>Teknisi Komputer dan Printer Pekanbaru</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PT Arisma Data Setia, PT Arisma Data Setia - Sidoarjo Office - Sidoarjo</t>
+          <t>PT IT Service Centre, Pekanbaru - Pekanbaru</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -937,17 +937,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1358336</t>
+          <t>https://www.karir.com/opportunities/1384344</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IDR 5.000.000 - 8.000.000</t>
+          <t>Gaji Kompetitif</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Social Media Marketing Performance</t>
+          <t>Teknisi Komputer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -957,17 +957,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman 0 tahun</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PT Bima Sakti Alterra, head office - Denpasar</t>
+          <t>PT IT Service Centre, Jakarta - Jakarta</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1358459</t>
+          <t>https://www.karir.com/opportunities/1384765</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sales Project</t>
+          <t>IT Support</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ASABA GROUP, Cabang Makassar - Makassar</t>
+          <t>PT IT Service Centre, Jakarta - Jakarta</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1358470</t>
+          <t>https://www.karir.com/opportunities/1384804</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sales Project</t>
+          <t>Programmer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ASABA GROUP, Cabang Semarang - Semarang</t>
+          <t>PT IT Service Centre, Jakarta - Jakarta</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1355512</t>
+          <t>https://www.karir.com/opportunities/1385157</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Finance, Accounting and Tax Manager</t>
+          <t>Customer Service Palembang</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1092,17 +1092,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman Setidaknya 1 tahun</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ASABA GROUP, Serang - Serang</t>
+          <t>PT IT Service Centre, Palembang - Palembang</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1355511</t>
+          <t>https://www.karir.com/opportunities/1385129</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IDR 7.000.000 - 9.000.000</t>
+          <t>IDR 4.000.000 - 4.500.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Corporate Management</t>
+          <t>HELPDESK IT SUPPORT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1137,17 +1137,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pengalaman 2 tahun</t>
+          <t>Pengalaman 0 tahun</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ASABA GROUP, Head Office - Prov. DKI-Jakarta</t>
+          <t>PT Sarana Pactindo, head office - Bandung</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.karir.com/opportunities/1350685?offline_token=3f590f90-6825-490f-b603-14f000d287b2</t>
+          <t>https://www.karir.com/opportunities/1381610</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Driver (FDC) - Malang</t>
+          <t>APPLICATION DEVELOPER</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PERSOLKELLY Recruitment Indonesia, Prov. Jawa Timur - Prov. Jawa Timur</t>
+          <t>PT QPRO Sukses Mandiri, head office - Prov. DKI-Jakarta</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
